--- a/Data/Predictions/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_predictions.xlsx
+++ b/Data/Predictions/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_predictions.xlsx
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -13275,7 +13275,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
